--- a/Kontrol Scan WB.xlsx
+++ b/Kontrol Scan WB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ACA66E-EB58-4F06-8D43-65675DA4BA6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table13[#All]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet3!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="851">
   <si>
     <t>nmkec</t>
   </si>
@@ -2576,16 +2575,13 @@
     <t>kec</t>
   </si>
   <si>
-    <t>Total Peta</t>
-  </si>
-  <si>
-    <t>Tercetak</t>
+    <t>Scanned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2734,25 +2730,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2763,13 +2806,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2782,27 +2823,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2907,13 +2927,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2923,6 +2936,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2942,7 +2962,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2977,16 +2996,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB427EF-9544-48B0-A132-9A6527F05CBF}" name="Table13" displayName="Table13" ref="A1:H633" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3D9F973A-78CF-49BA-910C-A22331C83958}" name="kec" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{65BBA72B-8806-4650-B1A0-294A2E2BB9DB}" name="desa" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{36F4422A-568B-4F8E-8012-E931485BF1B8}" name="nmkec" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6C0AB0D7-FD29-463C-9FBC-E99AE4DD55C5}" name="nmdesa" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1AF4E10A-B7A8-4E1D-B9C6-19D5611F9835}" name="kdbs" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0179FE75-324E-41D4-BD33-3CED907E3C4B}" name="idbs" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6976C47A-1AD6-4585-84B3-326946E22A3C}" name="Total Peta" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{662EAEFF-DC41-4E8D-928F-4B6D27F37D24}" name="Tercetak" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:G633" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <tableColumns count="7">
+    <tableColumn id="1" name="kec" dataDxfId="9"/>
+    <tableColumn id="2" name="desa" dataDxfId="8"/>
+    <tableColumn id="3" name="nmkec" dataDxfId="7"/>
+    <tableColumn id="4" name="nmdesa" dataDxfId="6"/>
+    <tableColumn id="5" name="kdbs" dataDxfId="5"/>
+    <tableColumn id="6" name="idbs" dataDxfId="4"/>
+    <tableColumn id="8" name="Scanned" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3254,52 +3272,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4917856E-D48F-4A9F-9C49-D78F1370A9ED}">
-  <dimension ref="A1:H633"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>815</v>
       </c>
@@ -3318,10 +3332,9 @@
       <c r="F2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>815</v>
       </c>
@@ -3340,10 +3353,9 @@
       <c r="F3" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>815</v>
       </c>
@@ -3362,10 +3374,9 @@
       <c r="F4" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>815</v>
       </c>
@@ -3384,10 +3395,9 @@
       <c r="F5" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>815</v>
       </c>
@@ -3406,10 +3416,9 @@
       <c r="F6" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>815</v>
       </c>
@@ -3428,10 +3437,9 @@
       <c r="F7" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>815</v>
       </c>
@@ -3450,10 +3458,9 @@
       <c r="F8" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>815</v>
       </c>
@@ -3472,10 +3479,9 @@
       <c r="F9" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>815</v>
       </c>
@@ -3494,10 +3500,9 @@
       <c r="F10" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>815</v>
       </c>
@@ -3516,10 +3521,9 @@
       <c r="F11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>815</v>
       </c>
@@ -3538,10 +3542,9 @@
       <c r="F12" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>815</v>
       </c>
@@ -3560,10 +3563,9 @@
       <c r="F13" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>815</v>
       </c>
@@ -3582,10 +3584,9 @@
       <c r="F14" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>815</v>
       </c>
@@ -3604,10 +3605,9 @@
       <c r="F15" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>815</v>
       </c>
@@ -3626,10 +3626,9 @@
       <c r="F16" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>815</v>
       </c>
@@ -3648,10 +3647,9 @@
       <c r="F17" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>815</v>
       </c>
@@ -3670,10 +3668,9 @@
       <c r="F18" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>815</v>
       </c>
@@ -3692,10 +3689,9 @@
       <c r="F19" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>815</v>
       </c>
@@ -3714,10 +3710,9 @@
       <c r="F20" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>815</v>
       </c>
@@ -3736,10 +3731,9 @@
       <c r="F21" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>815</v>
       </c>
@@ -3758,10 +3752,9 @@
       <c r="F22" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>815</v>
       </c>
@@ -3780,10 +3773,9 @@
       <c r="F23" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>815</v>
       </c>
@@ -3802,10 +3794,9 @@
       <c r="F24" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>815</v>
       </c>
@@ -3824,10 +3815,9 @@
       <c r="F25" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>815</v>
       </c>
@@ -3846,10 +3836,9 @@
       <c r="F26" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>815</v>
       </c>
@@ -3868,10 +3857,9 @@
       <c r="F27" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>815</v>
       </c>
@@ -3890,10 +3878,9 @@
       <c r="F28" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>815</v>
       </c>
@@ -3912,10 +3899,9 @@
       <c r="F29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>815</v>
       </c>
@@ -3934,10 +3920,9 @@
       <c r="F30" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>815</v>
       </c>
@@ -3956,10 +3941,9 @@
       <c r="F31" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>815</v>
       </c>
@@ -3978,10 +3962,9 @@
       <c r="F32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>815</v>
       </c>
@@ -4000,10 +3983,9 @@
       <c r="F33" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>815</v>
       </c>
@@ -4022,10 +4004,9 @@
       <c r="F34" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>815</v>
       </c>
@@ -4044,10 +4025,9 @@
       <c r="F35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>815</v>
       </c>
@@ -4066,10 +4046,9 @@
       <c r="F36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>815</v>
       </c>
@@ -4088,10 +4067,9 @@
       <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>815</v>
       </c>
@@ -4110,10 +4088,9 @@
       <c r="F38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>815</v>
       </c>
@@ -4132,10 +4109,9 @@
       <c r="F39" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>815</v>
       </c>
@@ -4154,10 +4130,9 @@
       <c r="F40" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>815</v>
       </c>
@@ -4176,10 +4151,9 @@
       <c r="F41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>815</v>
       </c>
@@ -4198,10 +4172,9 @@
       <c r="F42" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>815</v>
       </c>
@@ -4220,10 +4193,9 @@
       <c r="F43" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>815</v>
       </c>
@@ -4242,10 +4214,9 @@
       <c r="F44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>815</v>
       </c>
@@ -4264,10 +4235,9 @@
       <c r="F45" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>815</v>
       </c>
@@ -4286,10 +4256,9 @@
       <c r="F46" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>815</v>
       </c>
@@ -4308,10 +4277,9 @@
       <c r="F47" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>815</v>
       </c>
@@ -4330,10 +4298,9 @@
       <c r="F48" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>815</v>
       </c>
@@ -4352,10 +4319,9 @@
       <c r="F49" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>822</v>
       </c>
@@ -4374,10 +4340,9 @@
       <c r="F50" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>822</v>
       </c>
@@ -4396,10 +4361,9 @@
       <c r="F51" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>822</v>
       </c>
@@ -4418,10 +4382,9 @@
       <c r="F52" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>822</v>
       </c>
@@ -4440,10 +4403,9 @@
       <c r="F53" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>822</v>
       </c>
@@ -4462,10 +4424,9 @@
       <c r="F54" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>822</v>
       </c>
@@ -4484,10 +4445,9 @@
       <c r="F55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>822</v>
       </c>
@@ -4506,10 +4466,9 @@
       <c r="F56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>822</v>
       </c>
@@ -4528,10 +4487,9 @@
       <c r="F57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>822</v>
       </c>
@@ -4550,10 +4508,9 @@
       <c r="F58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>822</v>
       </c>
@@ -4572,10 +4529,9 @@
       <c r="F59" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>822</v>
       </c>
@@ -4594,10 +4550,9 @@
       <c r="F60" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>822</v>
       </c>
@@ -4616,10 +4571,9 @@
       <c r="F61" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>822</v>
       </c>
@@ -4638,10 +4592,9 @@
       <c r="F62" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>822</v>
       </c>
@@ -4660,10 +4613,9 @@
       <c r="F63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>822</v>
       </c>
@@ -4682,10 +4634,9 @@
       <c r="F64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>822</v>
       </c>
@@ -4704,10 +4655,9 @@
       <c r="F65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>822</v>
       </c>
@@ -4726,10 +4676,9 @@
       <c r="F66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>822</v>
       </c>
@@ -4748,10 +4697,9 @@
       <c r="F67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>822</v>
       </c>
@@ -4770,10 +4718,9 @@
       <c r="F68" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>822</v>
       </c>
@@ -4792,10 +4739,9 @@
       <c r="F69" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>822</v>
       </c>
@@ -4814,10 +4760,9 @@
       <c r="F70" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>822</v>
       </c>
@@ -4836,10 +4781,9 @@
       <c r="F71" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>822</v>
       </c>
@@ -4858,10 +4802,9 @@
       <c r="F72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>822</v>
       </c>
@@ -4880,10 +4823,9 @@
       <c r="F73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>822</v>
       </c>
@@ -4902,10 +4844,9 @@
       <c r="F74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>822</v>
       </c>
@@ -4924,10 +4865,9 @@
       <c r="F75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>822</v>
       </c>
@@ -4946,10 +4886,9 @@
       <c r="F76" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>822</v>
       </c>
@@ -4968,10 +4907,9 @@
       <c r="F77" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>822</v>
       </c>
@@ -4990,10 +4928,9 @@
       <c r="F78" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>822</v>
       </c>
@@ -5012,10 +4949,9 @@
       <c r="F79" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>822</v>
       </c>
@@ -5034,10 +4970,9 @@
       <c r="F80" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>822</v>
       </c>
@@ -5056,10 +4991,9 @@
       <c r="F81" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>822</v>
       </c>
@@ -5078,10 +5012,9 @@
       <c r="F82" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>822</v>
       </c>
@@ -5100,10 +5033,9 @@
       <c r="F83" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>822</v>
       </c>
@@ -5122,10 +5054,9 @@
       <c r="F84" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>822</v>
       </c>
@@ -5144,10 +5075,9 @@
       <c r="F85" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>822</v>
       </c>
@@ -5166,10 +5096,9 @@
       <c r="F86" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>822</v>
       </c>
@@ -5188,10 +5117,9 @@
       <c r="F87" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>822</v>
       </c>
@@ -5210,10 +5138,9 @@
       <c r="F88" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>820</v>
       </c>
@@ -5232,10 +5159,9 @@
       <c r="F89" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>820</v>
       </c>
@@ -5254,10 +5180,9 @@
       <c r="F90" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>820</v>
       </c>
@@ -5276,10 +5201,9 @@
       <c r="F91" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>820</v>
       </c>
@@ -5298,10 +5222,9 @@
       <c r="F92" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>820</v>
       </c>
@@ -5320,10 +5243,9 @@
       <c r="F93" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>820</v>
       </c>
@@ -5342,10 +5264,9 @@
       <c r="F94" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>820</v>
       </c>
@@ -5364,10 +5285,9 @@
       <c r="F95" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>820</v>
       </c>
@@ -5386,10 +5306,9 @@
       <c r="F96" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>820</v>
       </c>
@@ -5408,10 +5327,9 @@
       <c r="F97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>820</v>
       </c>
@@ -5430,10 +5348,9 @@
       <c r="F98" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>820</v>
       </c>
@@ -5452,10 +5369,9 @@
       <c r="F99" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>820</v>
       </c>
@@ -5474,10 +5390,9 @@
       <c r="F100" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>820</v>
       </c>
@@ -5496,10 +5411,9 @@
       <c r="F101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>820</v>
       </c>
@@ -5518,10 +5432,9 @@
       <c r="F102" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G102" s="1"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>820</v>
       </c>
@@ -5540,10 +5453,9 @@
       <c r="F103" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>820</v>
       </c>
@@ -5562,10 +5474,9 @@
       <c r="F104" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>820</v>
       </c>
@@ -5584,10 +5495,9 @@
       <c r="F105" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>820</v>
       </c>
@@ -5606,10 +5516,9 @@
       <c r="F106" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>820</v>
       </c>
@@ -5628,10 +5537,9 @@
       <c r="F107" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>820</v>
       </c>
@@ -5650,10 +5558,9 @@
       <c r="F108" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>820</v>
       </c>
@@ -5672,10 +5579,9 @@
       <c r="F109" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>820</v>
       </c>
@@ -5694,10 +5600,9 @@
       <c r="F110" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>820</v>
       </c>
@@ -5716,10 +5621,9 @@
       <c r="F111" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>820</v>
       </c>
@@ -5738,10 +5642,9 @@
       <c r="F112" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>820</v>
       </c>
@@ -5760,10 +5663,9 @@
       <c r="F113" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G113" s="1"/>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>820</v>
       </c>
@@ -5782,10 +5684,9 @@
       <c r="F114" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="G114" s="1"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>820</v>
       </c>
@@ -5804,10 +5705,9 @@
       <c r="F115" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>820</v>
       </c>
@@ -5826,10 +5726,9 @@
       <c r="F116" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>820</v>
       </c>
@@ -5848,10 +5747,9 @@
       <c r="F117" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>819</v>
       </c>
@@ -5870,10 +5768,9 @@
       <c r="F118" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>819</v>
       </c>
@@ -5892,10 +5789,9 @@
       <c r="F119" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>819</v>
       </c>
@@ -5914,10 +5810,9 @@
       <c r="F120" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>819</v>
       </c>
@@ -5936,10 +5831,9 @@
       <c r="F121" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>819</v>
       </c>
@@ -5958,10 +5852,9 @@
       <c r="F122" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>819</v>
       </c>
@@ -5980,10 +5873,9 @@
       <c r="F123" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>819</v>
       </c>
@@ -6002,10 +5894,9 @@
       <c r="F124" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>819</v>
       </c>
@@ -6024,10 +5915,9 @@
       <c r="F125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G125" s="1"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>819</v>
       </c>
@@ -6046,10 +5936,9 @@
       <c r="F126" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G126" s="1"/>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>819</v>
       </c>
@@ -6068,10 +5957,9 @@
       <c r="F127" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G127" s="1"/>
-      <c r="H127" s="3"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>819</v>
       </c>
@@ -6090,10 +5978,9 @@
       <c r="F128" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G128" s="1"/>
-      <c r="H128" s="3"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>819</v>
       </c>
@@ -6112,10 +5999,9 @@
       <c r="F129" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G129" s="1"/>
-      <c r="H129" s="3"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>819</v>
       </c>
@@ -6134,10 +6020,9 @@
       <c r="F130" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G130" s="1"/>
-      <c r="H130" s="3"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>819</v>
       </c>
@@ -6156,10 +6041,9 @@
       <c r="F131" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G131" s="1"/>
-      <c r="H131" s="3"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>819</v>
       </c>
@@ -6178,10 +6062,9 @@
       <c r="F132" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="3"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>819</v>
       </c>
@@ -6200,10 +6083,9 @@
       <c r="F133" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G133" s="1"/>
-      <c r="H133" s="3"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>819</v>
       </c>
@@ -6222,10 +6104,9 @@
       <c r="F134" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="3"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>823</v>
       </c>
@@ -6244,10 +6125,9 @@
       <c r="F135" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G135" s="1"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>823</v>
       </c>
@@ -6266,10 +6146,9 @@
       <c r="F136" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="3"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>823</v>
       </c>
@@ -6288,10 +6167,9 @@
       <c r="F137" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G137" s="1"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>823</v>
       </c>
@@ -6310,10 +6188,9 @@
       <c r="F138" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>823</v>
       </c>
@@ -6332,10 +6209,9 @@
       <c r="F139" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="3"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>823</v>
       </c>
@@ -6354,10 +6230,9 @@
       <c r="F140" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G140" s="1"/>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>823</v>
       </c>
@@ -6376,10 +6251,9 @@
       <c r="F141" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>823</v>
       </c>
@@ -6398,10 +6272,9 @@
       <c r="F142" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G142" s="1"/>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>823</v>
       </c>
@@ -6420,10 +6293,9 @@
       <c r="F143" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>823</v>
       </c>
@@ -6442,10 +6314,9 @@
       <c r="F144" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>823</v>
       </c>
@@ -6464,10 +6335,9 @@
       <c r="F145" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>823</v>
       </c>
@@ -6486,10 +6356,9 @@
       <c r="F146" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>823</v>
       </c>
@@ -6508,10 +6377,9 @@
       <c r="F147" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>823</v>
       </c>
@@ -6530,10 +6398,9 @@
       <c r="F148" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>823</v>
       </c>
@@ -6552,10 +6419,9 @@
       <c r="F149" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>823</v>
       </c>
@@ -6574,10 +6440,9 @@
       <c r="F150" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>823</v>
       </c>
@@ -6596,10 +6461,9 @@
       <c r="F151" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>823</v>
       </c>
@@ -6618,10 +6482,9 @@
       <c r="F152" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G152" s="1"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>823</v>
       </c>
@@ -6640,10 +6503,9 @@
       <c r="F153" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>823</v>
       </c>
@@ -6662,10 +6524,9 @@
       <c r="F154" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G154" s="1"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>823</v>
       </c>
@@ -6684,10 +6545,9 @@
       <c r="F155" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="G155" s="1"/>
-      <c r="H155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>823</v>
       </c>
@@ -6706,10 +6566,9 @@
       <c r="F156" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G156" s="1"/>
-      <c r="H156" s="3"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>823</v>
       </c>
@@ -6728,10 +6587,9 @@
       <c r="F157" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="3"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>823</v>
       </c>
@@ -6750,10 +6608,9 @@
       <c r="F158" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>823</v>
       </c>
@@ -6772,10 +6629,9 @@
       <c r="F159" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="3"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>823</v>
       </c>
@@ -6794,10 +6650,9 @@
       <c r="F160" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="3"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>823</v>
       </c>
@@ -6816,10 +6671,9 @@
       <c r="F161" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G161" s="1"/>
-      <c r="H161" s="3"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>823</v>
       </c>
@@ -6838,10 +6692,9 @@
       <c r="F162" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G162" s="1"/>
-      <c r="H162" s="3"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>823</v>
       </c>
@@ -6860,10 +6713,9 @@
       <c r="F163" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G163" s="1"/>
-      <c r="H163" s="3"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>823</v>
       </c>
@@ -6882,10 +6734,9 @@
       <c r="F164" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="3"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>823</v>
       </c>
@@ -6904,10 +6755,9 @@
       <c r="F165" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G165" s="1"/>
-      <c r="H165" s="3"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>823</v>
       </c>
@@ -6926,10 +6776,9 @@
       <c r="F166" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="3"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>823</v>
       </c>
@@ -6948,10 +6797,9 @@
       <c r="F167" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G167" s="1"/>
-      <c r="H167" s="3"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>823</v>
       </c>
@@ -6970,10 +6818,9 @@
       <c r="F168" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="3"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>823</v>
       </c>
@@ -6992,10 +6839,9 @@
       <c r="F169" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="3"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>823</v>
       </c>
@@ -7014,10 +6860,9 @@
       <c r="F170" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G170" s="1"/>
-      <c r="H170" s="3"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>823</v>
       </c>
@@ -7036,10 +6881,9 @@
       <c r="F171" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G171" s="1"/>
-      <c r="H171" s="3"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>823</v>
       </c>
@@ -7058,10 +6902,9 @@
       <c r="F172" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>823</v>
       </c>
@@ -7080,10 +6923,9 @@
       <c r="F173" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G173" s="1"/>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>823</v>
       </c>
@@ -7102,10 +6944,9 @@
       <c r="F174" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G174" s="1"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>823</v>
       </c>
@@ -7124,10 +6965,9 @@
       <c r="F175" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G175" s="1"/>
-      <c r="H175" s="3"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>823</v>
       </c>
@@ -7146,10 +6986,9 @@
       <c r="F176" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G176" s="1"/>
-      <c r="H176" s="3"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>823</v>
       </c>
@@ -7168,10 +7007,9 @@
       <c r="F177" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G177" s="1"/>
-      <c r="H177" s="3"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>823</v>
       </c>
@@ -7190,10 +7028,9 @@
       <c r="F178" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G178" s="1"/>
-      <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>823</v>
       </c>
@@ -7212,10 +7049,9 @@
       <c r="F179" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G179" s="1"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>823</v>
       </c>
@@ -7234,10 +7070,9 @@
       <c r="F180" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G180" s="1"/>
-      <c r="H180" s="3"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>823</v>
       </c>
@@ -7256,10 +7091,9 @@
       <c r="F181" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G181" s="1"/>
-      <c r="H181" s="3"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>823</v>
       </c>
@@ -7278,10 +7112,9 @@
       <c r="F182" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G182" s="1"/>
-      <c r="H182" s="3"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>823</v>
       </c>
@@ -7300,10 +7133,9 @@
       <c r="F183" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G183" s="1"/>
-      <c r="H183" s="3"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>823</v>
       </c>
@@ -7322,10 +7154,9 @@
       <c r="F184" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G184" s="1"/>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>823</v>
       </c>
@@ -7344,10 +7175,9 @@
       <c r="F185" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="G185" s="1"/>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>823</v>
       </c>
@@ -7366,10 +7196,9 @@
       <c r="F186" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="G186" s="1"/>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>823</v>
       </c>
@@ -7388,10 +7217,9 @@
       <c r="F187" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G187" s="1"/>
-      <c r="H187" s="3"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>823</v>
       </c>
@@ -7410,10 +7238,9 @@
       <c r="F188" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G188" s="1"/>
-      <c r="H188" s="3"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>823</v>
       </c>
@@ -7432,10 +7259,9 @@
       <c r="F189" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G189" s="1"/>
-      <c r="H189" s="3"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>823</v>
       </c>
@@ -7454,10 +7280,9 @@
       <c r="F190" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G190" s="1"/>
-      <c r="H190" s="3"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>823</v>
       </c>
@@ -7476,10 +7301,9 @@
       <c r="F191" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G191" s="1"/>
-      <c r="H191" s="3"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>823</v>
       </c>
@@ -7498,10 +7322,9 @@
       <c r="F192" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G192" s="1"/>
-      <c r="H192" s="3"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>823</v>
       </c>
@@ -7520,10 +7343,9 @@
       <c r="F193" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="G193" s="1"/>
-      <c r="H193" s="3"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>823</v>
       </c>
@@ -7542,10 +7364,9 @@
       <c r="F194" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="G194" s="1"/>
-      <c r="H194" s="3"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>823</v>
       </c>
@@ -7564,10 +7385,9 @@
       <c r="F195" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G195" s="1"/>
-      <c r="H195" s="3"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>823</v>
       </c>
@@ -7586,10 +7406,9 @@
       <c r="F196" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="G196" s="1"/>
-      <c r="H196" s="3"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>823</v>
       </c>
@@ -7608,10 +7427,9 @@
       <c r="F197" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="G197" s="1"/>
-      <c r="H197" s="3"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>823</v>
       </c>
@@ -7630,10 +7448,9 @@
       <c r="F198" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G198" s="1"/>
-      <c r="H198" s="3"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>823</v>
       </c>
@@ -7652,10 +7469,9 @@
       <c r="F199" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G199" s="1"/>
-      <c r="H199" s="3"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>823</v>
       </c>
@@ -7674,10 +7490,9 @@
       <c r="F200" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G200" s="1"/>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>823</v>
       </c>
@@ -7696,10 +7511,9 @@
       <c r="F201" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="G201" s="1"/>
-      <c r="H201" s="3"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>823</v>
       </c>
@@ -7718,10 +7532,9 @@
       <c r="F202" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G202" s="1"/>
-      <c r="H202" s="3"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>837</v>
       </c>
@@ -7740,10 +7553,9 @@
       <c r="F203" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G203" s="1"/>
-      <c r="H203" s="3"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>837</v>
       </c>
@@ -7762,10 +7574,9 @@
       <c r="F204" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G204" s="1"/>
-      <c r="H204" s="3"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>837</v>
       </c>
@@ -7784,10 +7595,9 @@
       <c r="F205" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G205" s="1"/>
-      <c r="H205" s="3"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>837</v>
       </c>
@@ -7806,10 +7616,9 @@
       <c r="F206" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G206" s="1"/>
-      <c r="H206" s="3"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>837</v>
       </c>
@@ -7828,10 +7637,9 @@
       <c r="F207" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G207" s="1"/>
-      <c r="H207" s="3"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>837</v>
       </c>
@@ -7850,10 +7658,9 @@
       <c r="F208" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G208" s="1"/>
-      <c r="H208" s="3"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>837</v>
       </c>
@@ -7872,10 +7679,9 @@
       <c r="F209" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G209" s="1"/>
-      <c r="H209" s="3"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>837</v>
       </c>
@@ -7894,10 +7700,9 @@
       <c r="F210" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G210" s="1"/>
-      <c r="H210" s="3"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>837</v>
       </c>
@@ -7916,10 +7721,9 @@
       <c r="F211" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G211" s="1"/>
-      <c r="H211" s="3"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>837</v>
       </c>
@@ -7938,10 +7742,9 @@
       <c r="F212" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G212" s="1"/>
-      <c r="H212" s="3"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>837</v>
       </c>
@@ -7960,10 +7763,9 @@
       <c r="F213" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G213" s="1"/>
-      <c r="H213" s="3"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>837</v>
       </c>
@@ -7982,10 +7784,9 @@
       <c r="F214" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G214" s="1"/>
-      <c r="H214" s="3"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>837</v>
       </c>
@@ -8004,10 +7805,9 @@
       <c r="F215" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G215" s="1"/>
-      <c r="H215" s="3"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>837</v>
       </c>
@@ -8026,10 +7826,9 @@
       <c r="F216" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G216" s="1"/>
-      <c r="H216" s="3"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>837</v>
       </c>
@@ -8048,10 +7847,9 @@
       <c r="F217" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G217" s="1"/>
-      <c r="H217" s="3"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>837</v>
       </c>
@@ -8070,10 +7868,9 @@
       <c r="F218" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G218" s="1"/>
-      <c r="H218" s="3"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>837</v>
       </c>
@@ -8092,10 +7889,9 @@
       <c r="F219" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G219" s="1"/>
-      <c r="H219" s="3"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G219" s="8"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>837</v>
       </c>
@@ -8114,10 +7910,9 @@
       <c r="F220" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G220" s="1"/>
-      <c r="H220" s="3"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G220" s="8"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>837</v>
       </c>
@@ -8136,10 +7931,9 @@
       <c r="F221" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G221" s="1"/>
-      <c r="H221" s="3"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G221" s="8"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>837</v>
       </c>
@@ -8158,10 +7952,9 @@
       <c r="F222" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G222" s="1"/>
-      <c r="H222" s="3"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>837</v>
       </c>
@@ -8180,10 +7973,9 @@
       <c r="F223" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G223" s="1"/>
-      <c r="H223" s="3"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G223" s="8"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>837</v>
       </c>
@@ -8202,10 +7994,9 @@
       <c r="F224" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G224" s="1"/>
-      <c r="H224" s="3"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G224" s="8"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>837</v>
       </c>
@@ -8224,10 +8015,9 @@
       <c r="F225" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="G225" s="1"/>
-      <c r="H225" s="3"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G225" s="8"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>837</v>
       </c>
@@ -8246,10 +8036,9 @@
       <c r="F226" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G226" s="1"/>
-      <c r="H226" s="3"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>837</v>
       </c>
@@ -8268,10 +8057,9 @@
       <c r="F227" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G227" s="1"/>
-      <c r="H227" s="3"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G227" s="8"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>837</v>
       </c>
@@ -8290,10 +8078,9 @@
       <c r="F228" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="G228" s="1"/>
-      <c r="H228" s="3"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>837</v>
       </c>
@@ -8312,10 +8099,9 @@
       <c r="F229" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G229" s="1"/>
-      <c r="H229" s="3"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G229" s="8"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>837</v>
       </c>
@@ -8334,10 +8120,9 @@
       <c r="F230" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G230" s="1"/>
-      <c r="H230" s="3"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G230" s="8"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>837</v>
       </c>
@@ -8356,10 +8141,9 @@
       <c r="F231" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G231" s="1"/>
-      <c r="H231" s="3"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G231" s="8"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>837</v>
       </c>
@@ -8378,10 +8162,9 @@
       <c r="F232" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G232" s="1"/>
-      <c r="H232" s="3"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G232" s="8"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>837</v>
       </c>
@@ -8400,10 +8183,9 @@
       <c r="F233" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G233" s="1"/>
-      <c r="H233" s="3"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G233" s="8"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>837</v>
       </c>
@@ -8422,10 +8204,9 @@
       <c r="F234" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G234" s="1"/>
-      <c r="H234" s="3"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G234" s="8"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>837</v>
       </c>
@@ -8444,10 +8225,9 @@
       <c r="F235" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G235" s="1"/>
-      <c r="H235" s="3"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>837</v>
       </c>
@@ -8466,10 +8246,9 @@
       <c r="F236" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G236" s="1"/>
-      <c r="H236" s="3"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G236" s="8"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>837</v>
       </c>
@@ -8488,10 +8267,9 @@
       <c r="F237" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G237" s="1"/>
-      <c r="H237" s="3"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>837</v>
       </c>
@@ -8510,10 +8288,9 @@
       <c r="F238" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="G238" s="1"/>
-      <c r="H238" s="3"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>837</v>
       </c>
@@ -8532,10 +8309,9 @@
       <c r="F239" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G239" s="1"/>
-      <c r="H239" s="3"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G239" s="8"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>837</v>
       </c>
@@ -8554,10 +8330,9 @@
       <c r="F240" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G240" s="1"/>
-      <c r="H240" s="3"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G240" s="8"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>837</v>
       </c>
@@ -8576,10 +8351,9 @@
       <c r="F241" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="G241" s="1"/>
-      <c r="H241" s="3"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G241" s="8"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>837</v>
       </c>
@@ -8598,10 +8372,9 @@
       <c r="F242" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="G242" s="1"/>
-      <c r="H242" s="3"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>837</v>
       </c>
@@ -8620,10 +8393,9 @@
       <c r="F243" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="G243" s="1"/>
-      <c r="H243" s="3"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>837</v>
       </c>
@@ -8642,10 +8414,9 @@
       <c r="F244" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G244" s="1"/>
-      <c r="H244" s="3"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>837</v>
       </c>
@@ -8664,10 +8435,9 @@
       <c r="F245" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G245" s="1"/>
-      <c r="H245" s="3"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>837</v>
       </c>
@@ -8686,10 +8456,9 @@
       <c r="F246" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="G246" s="1"/>
-      <c r="H246" s="3"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>837</v>
       </c>
@@ -8708,10 +8477,9 @@
       <c r="F247" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G247" s="1"/>
-      <c r="H247" s="3"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G247" s="8"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>837</v>
       </c>
@@ -8730,10 +8498,9 @@
       <c r="F248" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G248" s="1"/>
-      <c r="H248" s="3"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G248" s="8"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>837</v>
       </c>
@@ -8752,10 +8519,9 @@
       <c r="F249" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G249" s="1"/>
-      <c r="H249" s="3"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G249" s="8"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>837</v>
       </c>
@@ -8774,10 +8540,9 @@
       <c r="F250" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G250" s="1"/>
-      <c r="H250" s="3"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G250" s="8"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>837</v>
       </c>
@@ -8796,10 +8561,9 @@
       <c r="F251" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="G251" s="1"/>
-      <c r="H251" s="3"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G251" s="8"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>837</v>
       </c>
@@ -8818,10 +8582,9 @@
       <c r="F252" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G252" s="1"/>
-      <c r="H252" s="3"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G252" s="8"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>837</v>
       </c>
@@ -8840,10 +8603,9 @@
       <c r="F253" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G253" s="1"/>
-      <c r="H253" s="3"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G253" s="8"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>837</v>
       </c>
@@ -8862,10 +8624,9 @@
       <c r="F254" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G254" s="1"/>
-      <c r="H254" s="3"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>837</v>
       </c>
@@ -8884,10 +8645,9 @@
       <c r="F255" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G255" s="1"/>
-      <c r="H255" s="3"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G255" s="8"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>837</v>
       </c>
@@ -8906,10 +8666,9 @@
       <c r="F256" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="G256" s="1"/>
-      <c r="H256" s="3"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G256" s="8"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>837</v>
       </c>
@@ -8928,10 +8687,9 @@
       <c r="F257" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G257" s="1"/>
-      <c r="H257" s="3"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G257" s="8"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>837</v>
       </c>
@@ -8950,10 +8708,9 @@
       <c r="F258" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G258" s="1"/>
-      <c r="H258" s="3"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G258" s="8"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>837</v>
       </c>
@@ -8972,10 +8729,9 @@
       <c r="F259" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G259" s="1"/>
-      <c r="H259" s="3"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G259" s="8"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>837</v>
       </c>
@@ -8994,10 +8750,9 @@
       <c r="F260" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G260" s="1"/>
-      <c r="H260" s="3"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G260" s="8"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>837</v>
       </c>
@@ -9016,10 +8771,9 @@
       <c r="F261" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G261" s="1"/>
-      <c r="H261" s="3"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G261" s="8"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>837</v>
       </c>
@@ -9038,10 +8792,9 @@
       <c r="F262" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G262" s="1"/>
-      <c r="H262" s="3"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G262" s="8"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>829</v>
       </c>
@@ -9060,10 +8813,9 @@
       <c r="F263" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G263" s="1"/>
-      <c r="H263" s="3"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>829</v>
       </c>
@@ -9082,10 +8834,9 @@
       <c r="F264" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G264" s="1"/>
-      <c r="H264" s="3"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G264" s="8"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>829</v>
       </c>
@@ -9104,10 +8855,9 @@
       <c r="F265" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G265" s="1"/>
-      <c r="H265" s="3"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>829</v>
       </c>
@@ -9126,10 +8876,9 @@
       <c r="F266" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G266" s="1"/>
-      <c r="H266" s="3"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G266" s="8"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>829</v>
       </c>
@@ -9148,10 +8897,9 @@
       <c r="F267" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G267" s="1"/>
-      <c r="H267" s="3"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G267" s="8"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>829</v>
       </c>
@@ -9170,10 +8918,9 @@
       <c r="F268" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G268" s="1"/>
-      <c r="H268" s="3"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G268" s="8"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>829</v>
       </c>
@@ -9192,10 +8939,9 @@
       <c r="F269" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G269" s="1"/>
-      <c r="H269" s="3"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G269" s="8"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>829</v>
       </c>
@@ -9214,10 +8960,9 @@
       <c r="F270" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G270" s="1"/>
-      <c r="H270" s="3"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>829</v>
       </c>
@@ -9236,10 +8981,9 @@
       <c r="F271" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G271" s="1"/>
-      <c r="H271" s="3"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G271" s="8"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>829</v>
       </c>
@@ -9258,10 +9002,9 @@
       <c r="F272" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G272" s="1"/>
-      <c r="H272" s="3"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>829</v>
       </c>
@@ -9280,10 +9023,9 @@
       <c r="F273" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G273" s="1"/>
-      <c r="H273" s="3"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>829</v>
       </c>
@@ -9302,10 +9044,9 @@
       <c r="F274" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G274" s="1"/>
-      <c r="H274" s="3"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G274" s="8"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>829</v>
       </c>
@@ -9324,10 +9065,9 @@
       <c r="F275" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G275" s="1"/>
-      <c r="H275" s="3"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G275" s="8"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>829</v>
       </c>
@@ -9346,10 +9086,9 @@
       <c r="F276" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G276" s="1"/>
-      <c r="H276" s="3"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G276" s="8"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>829</v>
       </c>
@@ -9368,10 +9107,9 @@
       <c r="F277" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G277" s="1"/>
-      <c r="H277" s="3"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>829</v>
       </c>
@@ -9390,10 +9128,9 @@
       <c r="F278" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="G278" s="1"/>
-      <c r="H278" s="3"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G278" s="8"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>829</v>
       </c>
@@ -9412,10 +9149,9 @@
       <c r="F279" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G279" s="1"/>
-      <c r="H279" s="3"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G279" s="8"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>829</v>
       </c>
@@ -9434,10 +9170,9 @@
       <c r="F280" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G280" s="1"/>
-      <c r="H280" s="3"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G280" s="8"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>829</v>
       </c>
@@ -9456,10 +9191,9 @@
       <c r="F281" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G281" s="1"/>
-      <c r="H281" s="3"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G281" s="8"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>829</v>
       </c>
@@ -9478,10 +9212,9 @@
       <c r="F282" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G282" s="1"/>
-      <c r="H282" s="3"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G282" s="8"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>829</v>
       </c>
@@ -9500,10 +9233,9 @@
       <c r="F283" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G283" s="1"/>
-      <c r="H283" s="3"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>829</v>
       </c>
@@ -9522,10 +9254,9 @@
       <c r="F284" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G284" s="1"/>
-      <c r="H284" s="3"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G284" s="8"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>829</v>
       </c>
@@ -9544,10 +9275,9 @@
       <c r="F285" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G285" s="1"/>
-      <c r="H285" s="3"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G285" s="8"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>829</v>
       </c>
@@ -9566,10 +9296,9 @@
       <c r="F286" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G286" s="1"/>
-      <c r="H286" s="3"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G286" s="8"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>829</v>
       </c>
@@ -9588,10 +9317,9 @@
       <c r="F287" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G287" s="1"/>
-      <c r="H287" s="3"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G287" s="8"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>829</v>
       </c>
@@ -9610,10 +9338,9 @@
       <c r="F288" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G288" s="1"/>
-      <c r="H288" s="3"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G288" s="8"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>829</v>
       </c>
@@ -9632,10 +9359,9 @@
       <c r="F289" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G289" s="1"/>
-      <c r="H289" s="3"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G289" s="8"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>829</v>
       </c>
@@ -9654,10 +9380,9 @@
       <c r="F290" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G290" s="1"/>
-      <c r="H290" s="3"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G290" s="8"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>829</v>
       </c>
@@ -9676,10 +9401,9 @@
       <c r="F291" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G291" s="1"/>
-      <c r="H291" s="3"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G291" s="8"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>829</v>
       </c>
@@ -9698,10 +9422,9 @@
       <c r="F292" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G292" s="1"/>
-      <c r="H292" s="3"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G292" s="8"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>829</v>
       </c>
@@ -9720,10 +9443,9 @@
       <c r="F293" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G293" s="1"/>
-      <c r="H293" s="3"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G293" s="8"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>829</v>
       </c>
@@ -9742,10 +9464,9 @@
       <c r="F294" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="G294" s="1"/>
-      <c r="H294" s="3"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G294" s="8"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>829</v>
       </c>
@@ -9764,10 +9485,9 @@
       <c r="F295" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G295" s="1"/>
-      <c r="H295" s="3"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G295" s="8"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>829</v>
       </c>
@@ -9786,10 +9506,9 @@
       <c r="F296" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G296" s="1"/>
-      <c r="H296" s="3"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G296" s="8"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>829</v>
       </c>
@@ -9808,10 +9527,9 @@
       <c r="F297" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G297" s="1"/>
-      <c r="H297" s="3"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G297" s="8"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>829</v>
       </c>
@@ -9830,10 +9548,9 @@
       <c r="F298" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G298" s="1"/>
-      <c r="H298" s="3"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G298" s="8"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>829</v>
       </c>
@@ -9852,10 +9569,9 @@
       <c r="F299" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G299" s="1"/>
-      <c r="H299" s="3"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G299" s="8"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>829</v>
       </c>
@@ -9874,10 +9590,9 @@
       <c r="F300" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G300" s="1"/>
-      <c r="H300" s="3"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>821</v>
       </c>
@@ -9896,10 +9611,9 @@
       <c r="F301" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G301" s="1"/>
-      <c r="H301" s="3"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>821</v>
       </c>
@@ -9918,10 +9632,9 @@
       <c r="F302" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G302" s="1"/>
-      <c r="H302" s="3"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G302" s="8"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>821</v>
       </c>
@@ -9940,10 +9653,9 @@
       <c r="F303" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G303" s="1"/>
-      <c r="H303" s="3"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G303" s="8"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>821</v>
       </c>
@@ -9962,10 +9674,9 @@
       <c r="F304" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G304" s="1"/>
-      <c r="H304" s="3"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G304" s="8"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>821</v>
       </c>
@@ -9984,10 +9695,9 @@
       <c r="F305" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G305" s="1"/>
-      <c r="H305" s="3"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G305" s="8"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>821</v>
       </c>
@@ -10006,10 +9716,9 @@
       <c r="F306" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G306" s="1"/>
-      <c r="H306" s="3"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G306" s="8"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>821</v>
       </c>
@@ -10028,10 +9737,9 @@
       <c r="F307" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G307" s="1"/>
-      <c r="H307" s="3"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G307" s="8"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>821</v>
       </c>
@@ -10050,10 +9758,9 @@
       <c r="F308" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G308" s="1"/>
-      <c r="H308" s="3"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G308" s="8"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>821</v>
       </c>
@@ -10072,10 +9779,9 @@
       <c r="F309" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G309" s="1"/>
-      <c r="H309" s="3"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>821</v>
       </c>
@@ -10094,10 +9800,9 @@
       <c r="F310" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G310" s="1"/>
-      <c r="H310" s="3"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G310" s="8"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>821</v>
       </c>
@@ -10116,10 +9821,9 @@
       <c r="F311" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G311" s="1"/>
-      <c r="H311" s="3"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G311" s="8"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>821</v>
       </c>
@@ -10138,10 +9842,9 @@
       <c r="F312" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G312" s="1"/>
-      <c r="H312" s="3"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G312" s="8"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>821</v>
       </c>
@@ -10160,10 +9863,9 @@
       <c r="F313" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G313" s="1"/>
-      <c r="H313" s="3"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G313" s="8"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>821</v>
       </c>
@@ -10182,10 +9884,9 @@
       <c r="F314" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G314" s="1"/>
-      <c r="H314" s="3"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G314" s="8"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>821</v>
       </c>
@@ -10204,10 +9905,9 @@
       <c r="F315" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G315" s="1"/>
-      <c r="H315" s="3"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G315" s="8"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>821</v>
       </c>
@@ -10226,10 +9926,9 @@
       <c r="F316" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G316" s="1"/>
-      <c r="H316" s="3"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G316" s="8"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>821</v>
       </c>
@@ -10248,10 +9947,9 @@
       <c r="F317" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G317" s="1"/>
-      <c r="H317" s="3"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G317" s="8"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>821</v>
       </c>
@@ -10270,10 +9968,9 @@
       <c r="F318" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="G318" s="1"/>
-      <c r="H318" s="3"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G318" s="8"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>821</v>
       </c>
@@ -10292,10 +9989,9 @@
       <c r="F319" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G319" s="1"/>
-      <c r="H319" s="3"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G319" s="8"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>821</v>
       </c>
@@ -10314,10 +10010,9 @@
       <c r="F320" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G320" s="1"/>
-      <c r="H320" s="3"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G320" s="8"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>821</v>
       </c>
@@ -10336,10 +10031,9 @@
       <c r="F321" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G321" s="1"/>
-      <c r="H321" s="3"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G321" s="8"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>821</v>
       </c>
@@ -10358,10 +10052,9 @@
       <c r="F322" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="G322" s="1"/>
-      <c r="H322" s="3"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G322" s="8"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>821</v>
       </c>
@@ -10380,10 +10073,9 @@
       <c r="F323" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="G323" s="1"/>
-      <c r="H323" s="3"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G323" s="8"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>821</v>
       </c>
@@ -10402,10 +10094,9 @@
       <c r="F324" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G324" s="1"/>
-      <c r="H324" s="3"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G324" s="8"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>821</v>
       </c>
@@ -10424,10 +10115,9 @@
       <c r="F325" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G325" s="1"/>
-      <c r="H325" s="3"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G325" s="8"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>821</v>
       </c>
@@ -10446,10 +10136,9 @@
       <c r="F326" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="G326" s="1"/>
-      <c r="H326" s="3"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G326" s="8"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>821</v>
       </c>
@@ -10468,10 +10157,9 @@
       <c r="F327" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G327" s="1"/>
-      <c r="H327" s="3"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G327" s="8"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>821</v>
       </c>
@@ -10490,10 +10178,9 @@
       <c r="F328" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G328" s="1"/>
-      <c r="H328" s="3"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G328" s="8"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>821</v>
       </c>
@@ -10512,10 +10199,9 @@
       <c r="F329" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G329" s="1"/>
-      <c r="H329" s="3"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G329" s="8"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>821</v>
       </c>
@@ -10534,10 +10220,9 @@
       <c r="F330" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G330" s="1"/>
-      <c r="H330" s="3"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G330" s="8"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>821</v>
       </c>
@@ -10556,10 +10241,9 @@
       <c r="F331" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G331" s="1"/>
-      <c r="H331" s="3"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G331" s="8"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>821</v>
       </c>
@@ -10578,10 +10262,9 @@
       <c r="F332" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G332" s="1"/>
-      <c r="H332" s="3"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G332" s="8"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>821</v>
       </c>
@@ -10600,10 +10283,9 @@
       <c r="F333" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G333" s="1"/>
-      <c r="H333" s="3"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G333" s="8"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>821</v>
       </c>
@@ -10622,10 +10304,9 @@
       <c r="F334" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="G334" s="1"/>
-      <c r="H334" s="3"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G334" s="8"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>821</v>
       </c>
@@ -10644,10 +10325,9 @@
       <c r="F335" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="G335" s="1"/>
-      <c r="H335" s="3"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G335" s="8"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>821</v>
       </c>
@@ -10666,10 +10346,9 @@
       <c r="F336" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G336" s="1"/>
-      <c r="H336" s="3"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G336" s="8"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>821</v>
       </c>
@@ -10688,10 +10367,9 @@
       <c r="F337" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G337" s="1"/>
-      <c r="H337" s="3"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G337" s="8"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>821</v>
       </c>
@@ -10710,10 +10388,9 @@
       <c r="F338" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="G338" s="1"/>
-      <c r="H338" s="3"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G338" s="8"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>821</v>
       </c>
@@ -10732,10 +10409,9 @@
       <c r="F339" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="G339" s="1"/>
-      <c r="H339" s="3"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G339" s="8"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>821</v>
       </c>
@@ -10754,10 +10430,9 @@
       <c r="F340" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G340" s="1"/>
-      <c r="H340" s="3"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G340" s="8"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>821</v>
       </c>
@@ -10776,10 +10451,9 @@
       <c r="F341" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G341" s="1"/>
-      <c r="H341" s="3"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G341" s="8"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>821</v>
       </c>
@@ -10798,10 +10472,9 @@
       <c r="F342" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G342" s="1"/>
-      <c r="H342" s="3"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G342" s="8"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>821</v>
       </c>
@@ -10820,10 +10493,9 @@
       <c r="F343" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G343" s="1"/>
-      <c r="H343" s="3"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G343" s="8"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>821</v>
       </c>
@@ -10842,10 +10514,9 @@
       <c r="F344" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G344" s="1"/>
-      <c r="H344" s="3"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G344" s="8"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>821</v>
       </c>
@@ -10864,10 +10535,9 @@
       <c r="F345" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G345" s="1"/>
-      <c r="H345" s="3"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G345" s="8"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>821</v>
       </c>
@@ -10886,10 +10556,9 @@
       <c r="F346" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G346" s="1"/>
-      <c r="H346" s="3"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G346" s="8"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>821</v>
       </c>
@@ -10908,10 +10577,9 @@
       <c r="F347" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G347" s="1"/>
-      <c r="H347" s="3"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G347" s="8"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>821</v>
       </c>
@@ -10930,10 +10598,9 @@
       <c r="F348" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G348" s="1"/>
-      <c r="H348" s="3"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G348" s="8"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>821</v>
       </c>
@@ -10952,10 +10619,9 @@
       <c r="F349" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G349" s="1"/>
-      <c r="H349" s="3"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G349" s="8"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>821</v>
       </c>
@@ -10974,10 +10640,9 @@
       <c r="F350" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G350" s="1"/>
-      <c r="H350" s="3"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G350" s="8"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>821</v>
       </c>
@@ -10996,10 +10661,9 @@
       <c r="F351" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G351" s="1"/>
-      <c r="H351" s="3"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G351" s="8"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>821</v>
       </c>
@@ -11018,10 +10682,9 @@
       <c r="F352" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G352" s="1"/>
-      <c r="H352" s="3"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G352" s="8"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>821</v>
       </c>
@@ -11040,10 +10703,9 @@
       <c r="F353" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G353" s="1"/>
-      <c r="H353" s="3"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G353" s="8"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>821</v>
       </c>
@@ -11062,10 +10724,9 @@
       <c r="F354" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G354" s="1"/>
-      <c r="H354" s="3"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G354" s="8"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>821</v>
       </c>
@@ -11084,10 +10745,9 @@
       <c r="F355" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G355" s="1"/>
-      <c r="H355" s="3"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G355" s="8"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>821</v>
       </c>
@@ -11106,10 +10766,9 @@
       <c r="F356" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G356" s="1"/>
-      <c r="H356" s="3"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G356" s="8"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>821</v>
       </c>
@@ -11128,10 +10787,9 @@
       <c r="F357" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G357" s="1"/>
-      <c r="H357" s="3"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G357" s="8"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>821</v>
       </c>
@@ -11150,10 +10808,9 @@
       <c r="F358" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G358" s="1"/>
-      <c r="H358" s="3"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G358" s="8"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>821</v>
       </c>
@@ -11172,10 +10829,9 @@
       <c r="F359" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G359" s="1"/>
-      <c r="H359" s="3"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G359" s="8"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>821</v>
       </c>
@@ -11194,10 +10850,9 @@
       <c r="F360" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G360" s="1"/>
-      <c r="H360" s="3"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G360" s="8"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>821</v>
       </c>
@@ -11216,10 +10871,9 @@
       <c r="F361" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G361" s="1"/>
-      <c r="H361" s="3"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G361" s="8"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>821</v>
       </c>
@@ -11238,10 +10892,9 @@
       <c r="F362" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G362" s="1"/>
-      <c r="H362" s="3"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G362" s="8"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>821</v>
       </c>
@@ -11260,10 +10913,9 @@
       <c r="F363" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G363" s="1"/>
-      <c r="H363" s="3"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G363" s="8"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>821</v>
       </c>
@@ -11282,10 +10934,9 @@
       <c r="F364" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G364" s="1"/>
-      <c r="H364" s="3"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G364" s="8"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>821</v>
       </c>
@@ -11304,10 +10955,9 @@
       <c r="F365" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G365" s="1"/>
-      <c r="H365" s="3"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G365" s="8"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>821</v>
       </c>
@@ -11326,10 +10976,9 @@
       <c r="F366" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G366" s="1"/>
-      <c r="H366" s="3"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G366" s="8"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>821</v>
       </c>
@@ -11348,10 +10997,9 @@
       <c r="F367" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="G367" s="1"/>
-      <c r="H367" s="3"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G367" s="8"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>821</v>
       </c>
@@ -11370,10 +11018,9 @@
       <c r="F368" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G368" s="1"/>
-      <c r="H368" s="3"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G368" s="8"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>821</v>
       </c>
@@ -11392,10 +11039,9 @@
       <c r="F369" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G369" s="1"/>
-      <c r="H369" s="3"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G369" s="8"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>821</v>
       </c>
@@ -11414,10 +11060,9 @@
       <c r="F370" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G370" s="1"/>
-      <c r="H370" s="3"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G370" s="8"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>821</v>
       </c>
@@ -11436,10 +11081,9 @@
       <c r="F371" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G371" s="1"/>
-      <c r="H371" s="3"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G371" s="8"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>821</v>
       </c>
@@ -11458,10 +11102,9 @@
       <c r="F372" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G372" s="1"/>
-      <c r="H372" s="3"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G372" s="8"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>821</v>
       </c>
@@ -11480,10 +11123,9 @@
       <c r="F373" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G373" s="1"/>
-      <c r="H373" s="3"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G373" s="8"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>821</v>
       </c>
@@ -11502,10 +11144,9 @@
       <c r="F374" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G374" s="1"/>
-      <c r="H374" s="3"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G374" s="8"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>821</v>
       </c>
@@ -11524,10 +11165,9 @@
       <c r="F375" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G375" s="1"/>
-      <c r="H375" s="3"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G375" s="8"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>821</v>
       </c>
@@ -11546,10 +11186,9 @@
       <c r="F376" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G376" s="1"/>
-      <c r="H376" s="3"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G376" s="8"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>821</v>
       </c>
@@ -11568,10 +11207,9 @@
       <c r="F377" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="G377" s="1"/>
-      <c r="H377" s="3"/>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G377" s="8"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>821</v>
       </c>
@@ -11590,10 +11228,9 @@
       <c r="F378" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G378" s="1"/>
-      <c r="H378" s="3"/>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G378" s="8"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>821</v>
       </c>
@@ -11612,10 +11249,9 @@
       <c r="F379" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G379" s="1"/>
-      <c r="H379" s="3"/>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G379" s="8"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>821</v>
       </c>
@@ -11634,10 +11270,9 @@
       <c r="F380" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G380" s="1"/>
-      <c r="H380" s="3"/>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G380" s="8"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>821</v>
       </c>
@@ -11656,10 +11291,9 @@
       <c r="F381" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G381" s="1"/>
-      <c r="H381" s="3"/>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G381" s="8"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>821</v>
       </c>
@@ -11678,10 +11312,9 @@
       <c r="F382" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="G382" s="1"/>
-      <c r="H382" s="3"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G382" s="8"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>821</v>
       </c>
@@ -11700,10 +11333,9 @@
       <c r="F383" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G383" s="1"/>
-      <c r="H383" s="3"/>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G383" s="8"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>821</v>
       </c>
@@ -11722,10 +11354,9 @@
       <c r="F384" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G384" s="1"/>
-      <c r="H384" s="3"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G384" s="8"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>821</v>
       </c>
@@ -11744,10 +11375,9 @@
       <c r="F385" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G385" s="1"/>
-      <c r="H385" s="3"/>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G385" s="8"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>821</v>
       </c>
@@ -11766,10 +11396,9 @@
       <c r="F386" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G386" s="1"/>
-      <c r="H386" s="3"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G386" s="8"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>821</v>
       </c>
@@ -11788,10 +11417,9 @@
       <c r="F387" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G387" s="1"/>
-      <c r="H387" s="3"/>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G387" s="8"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>821</v>
       </c>
@@ -11810,10 +11438,9 @@
       <c r="F388" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G388" s="1"/>
-      <c r="H388" s="3"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G388" s="8"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>821</v>
       </c>
@@ -11832,10 +11459,9 @@
       <c r="F389" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G389" s="1"/>
-      <c r="H389" s="3"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G389" s="8"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>821</v>
       </c>
@@ -11854,10 +11480,9 @@
       <c r="F390" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G390" s="1"/>
-      <c r="H390" s="3"/>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G390" s="8"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>821</v>
       </c>
@@ -11876,10 +11501,9 @@
       <c r="F391" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G391" s="1"/>
-      <c r="H391" s="3"/>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G391" s="8"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>821</v>
       </c>
@@ -11898,10 +11522,9 @@
       <c r="F392" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G392" s="1"/>
-      <c r="H392" s="3"/>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G392" s="8"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>821</v>
       </c>
@@ -11920,10 +11543,9 @@
       <c r="F393" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G393" s="1"/>
-      <c r="H393" s="3"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G393" s="8"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>821</v>
       </c>
@@ -11942,10 +11564,9 @@
       <c r="F394" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G394" s="1"/>
-      <c r="H394" s="3"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G394" s="8"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>821</v>
       </c>
@@ -11964,10 +11585,9 @@
       <c r="F395" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G395" s="1"/>
-      <c r="H395" s="3"/>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G395" s="8"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>821</v>
       </c>
@@ -11986,10 +11606,9 @@
       <c r="F396" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G396" s="1"/>
-      <c r="H396" s="3"/>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G396" s="8"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>821</v>
       </c>
@@ -12008,10 +11627,9 @@
       <c r="F397" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G397" s="1"/>
-      <c r="H397" s="3"/>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G397" s="8"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>821</v>
       </c>
@@ -12030,10 +11648,9 @@
       <c r="F398" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="G398" s="1"/>
-      <c r="H398" s="3"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G398" s="8"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>821</v>
       </c>
@@ -12052,10 +11669,9 @@
       <c r="F399" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G399" s="1"/>
-      <c r="H399" s="3"/>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G399" s="8"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>821</v>
       </c>
@@ -12074,10 +11690,9 @@
       <c r="F400" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G400" s="1"/>
-      <c r="H400" s="3"/>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G400" s="8"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>821</v>
       </c>
@@ -12096,10 +11711,9 @@
       <c r="F401" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G401" s="1"/>
-      <c r="H401" s="3"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G401" s="8"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>821</v>
       </c>
@@ -12118,10 +11732,9 @@
       <c r="F402" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G402" s="1"/>
-      <c r="H402" s="3"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G402" s="8"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>821</v>
       </c>
@@ -12140,10 +11753,9 @@
       <c r="F403" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G403" s="1"/>
-      <c r="H403" s="3"/>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G403" s="8"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>821</v>
       </c>
@@ -12162,10 +11774,9 @@
       <c r="F404" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G404" s="1"/>
-      <c r="H404" s="3"/>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G404" s="8"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>821</v>
       </c>
@@ -12184,10 +11795,9 @@
       <c r="F405" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G405" s="1"/>
-      <c r="H405" s="3"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G405" s="8"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>821</v>
       </c>
@@ -12206,10 +11816,9 @@
       <c r="F406" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G406" s="1"/>
-      <c r="H406" s="3"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G406" s="8"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>821</v>
       </c>
@@ -12228,10 +11837,9 @@
       <c r="F407" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G407" s="1"/>
-      <c r="H407" s="3"/>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G407" s="8"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>821</v>
       </c>
@@ -12250,10 +11858,9 @@
       <c r="F408" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="G408" s="1"/>
-      <c r="H408" s="3"/>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G408" s="8"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>821</v>
       </c>
@@ -12272,10 +11879,9 @@
       <c r="F409" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G409" s="1"/>
-      <c r="H409" s="3"/>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G409" s="8"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>821</v>
       </c>
@@ -12294,10 +11900,9 @@
       <c r="F410" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G410" s="1"/>
-      <c r="H410" s="3"/>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G410" s="8"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>821</v>
       </c>
@@ -12316,10 +11921,9 @@
       <c r="F411" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G411" s="1"/>
-      <c r="H411" s="3"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G411" s="8"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>821</v>
       </c>
@@ -12338,10 +11942,9 @@
       <c r="F412" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G412" s="1"/>
-      <c r="H412" s="3"/>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G412" s="8"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>821</v>
       </c>
@@ -12360,10 +11963,9 @@
       <c r="F413" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G413" s="1"/>
-      <c r="H413" s="3"/>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G413" s="8"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>821</v>
       </c>
@@ -12382,10 +11984,9 @@
       <c r="F414" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G414" s="1"/>
-      <c r="H414" s="3"/>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G414" s="8"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>813</v>
       </c>
@@ -12404,10 +12005,9 @@
       <c r="F415" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="G415" s="1"/>
-      <c r="H415" s="3"/>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G415" s="8"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>813</v>
       </c>
@@ -12426,10 +12026,9 @@
       <c r="F416" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="G416" s="1"/>
-      <c r="H416" s="3"/>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G416" s="8"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>813</v>
       </c>
@@ -12448,10 +12047,9 @@
       <c r="F417" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G417" s="1"/>
-      <c r="H417" s="3"/>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G417" s="8"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>813</v>
       </c>
@@ -12470,10 +12068,9 @@
       <c r="F418" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G418" s="1"/>
-      <c r="H418" s="3"/>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G418" s="8"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>813</v>
       </c>
@@ -12492,10 +12089,9 @@
       <c r="F419" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G419" s="1"/>
-      <c r="H419" s="3"/>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G419" s="8"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>813</v>
       </c>
@@ -12514,10 +12110,9 @@
       <c r="F420" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G420" s="1"/>
-      <c r="H420" s="3"/>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G420" s="8"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>813</v>
       </c>
@@ -12536,10 +12131,9 @@
       <c r="F421" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G421" s="1"/>
-      <c r="H421" s="3"/>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G421" s="8"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>813</v>
       </c>
@@ -12558,10 +12152,9 @@
       <c r="F422" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G422" s="1"/>
-      <c r="H422" s="3"/>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G422" s="8"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>813</v>
       </c>
@@ -12580,10 +12173,9 @@
       <c r="F423" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G423" s="1"/>
-      <c r="H423" s="3"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G423" s="8"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>813</v>
       </c>
@@ -12602,10 +12194,9 @@
       <c r="F424" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="G424" s="1"/>
-      <c r="H424" s="3"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G424" s="8"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>813</v>
       </c>
@@ -12624,10 +12215,9 @@
       <c r="F425" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G425" s="1"/>
-      <c r="H425" s="3"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G425" s="8"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>813</v>
       </c>
@@ -12646,10 +12236,9 @@
       <c r="F426" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G426" s="1"/>
-      <c r="H426" s="3"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G426" s="8"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>813</v>
       </c>
@@ -12668,10 +12257,9 @@
       <c r="F427" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="G427" s="1"/>
-      <c r="H427" s="3"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G427" s="8"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>813</v>
       </c>
@@ -12690,10 +12278,9 @@
       <c r="F428" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G428" s="1"/>
-      <c r="H428" s="3"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G428" s="8"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>813</v>
       </c>
@@ -12712,10 +12299,9 @@
       <c r="F429" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G429" s="1"/>
-      <c r="H429" s="3"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G429" s="8"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>813</v>
       </c>
@@ -12734,10 +12320,9 @@
       <c r="F430" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G430" s="1"/>
-      <c r="H430" s="3"/>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G430" s="8"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>813</v>
       </c>
@@ -12756,10 +12341,9 @@
       <c r="F431" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="G431" s="1"/>
-      <c r="H431" s="3"/>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G431" s="8"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>813</v>
       </c>
@@ -12778,10 +12362,9 @@
       <c r="F432" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="G432" s="1"/>
-      <c r="H432" s="3"/>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G432" s="8"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>813</v>
       </c>
@@ -12800,10 +12383,9 @@
       <c r="F433" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G433" s="1"/>
-      <c r="H433" s="3"/>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G433" s="8"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>813</v>
       </c>
@@ -12822,10 +12404,9 @@
       <c r="F434" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G434" s="1"/>
-      <c r="H434" s="3"/>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G434" s="8"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>813</v>
       </c>
@@ -12844,10 +12425,9 @@
       <c r="F435" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G435" s="1"/>
-      <c r="H435" s="3"/>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G435" s="8"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>813</v>
       </c>
@@ -12866,10 +12446,9 @@
       <c r="F436" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G436" s="1"/>
-      <c r="H436" s="3"/>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G436" s="8"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>813</v>
       </c>
@@ -12888,10 +12467,9 @@
       <c r="F437" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G437" s="1"/>
-      <c r="H437" s="3"/>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G437" s="8"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>813</v>
       </c>
@@ -12910,10 +12488,9 @@
       <c r="F438" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G438" s="1"/>
-      <c r="H438" s="3"/>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G438" s="8"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>813</v>
       </c>
@@ -12932,10 +12509,9 @@
       <c r="F439" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="G439" s="1"/>
-      <c r="H439" s="3"/>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G439" s="8"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>813</v>
       </c>
@@ -12954,10 +12530,9 @@
       <c r="F440" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G440" s="1"/>
-      <c r="H440" s="3"/>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G440" s="8"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>813</v>
       </c>
@@ -12976,10 +12551,9 @@
       <c r="F441" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="G441" s="1"/>
-      <c r="H441" s="3"/>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>813</v>
       </c>
@@ -12998,10 +12572,9 @@
       <c r="F442" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G442" s="1"/>
-      <c r="H442" s="3"/>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G442" s="8"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>813</v>
       </c>
@@ -13020,10 +12593,9 @@
       <c r="F443" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="G443" s="1"/>
-      <c r="H443" s="3"/>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G443" s="8"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>813</v>
       </c>
@@ -13042,10 +12614,9 @@
       <c r="F444" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="G444" s="1"/>
-      <c r="H444" s="3"/>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G444" s="8"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>813</v>
       </c>
@@ -13064,10 +12635,9 @@
       <c r="F445" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G445" s="1"/>
-      <c r="H445" s="3"/>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G445" s="8"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>813</v>
       </c>
@@ -13086,10 +12656,9 @@
       <c r="F446" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="G446" s="1"/>
-      <c r="H446" s="3"/>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G446" s="8"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>813</v>
       </c>
@@ -13108,10 +12677,9 @@
       <c r="F447" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G447" s="1"/>
-      <c r="H447" s="3"/>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G447" s="8"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>813</v>
       </c>
@@ -13130,10 +12698,9 @@
       <c r="F448" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G448" s="1"/>
-      <c r="H448" s="3"/>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G448" s="8"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>813</v>
       </c>
@@ -13152,10 +12719,9 @@
       <c r="F449" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="G449" s="1"/>
-      <c r="H449" s="3"/>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G449" s="8"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>813</v>
       </c>
@@ -13174,10 +12740,9 @@
       <c r="F450" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="G450" s="1"/>
-      <c r="H450" s="3"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G450" s="8"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>813</v>
       </c>
@@ -13196,10 +12761,9 @@
       <c r="F451" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G451" s="1"/>
-      <c r="H451" s="3"/>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G451" s="8"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>813</v>
       </c>
@@ -13218,10 +12782,9 @@
       <c r="F452" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G452" s="1"/>
-      <c r="H452" s="3"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G452" s="8"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>813</v>
       </c>
@@ -13240,10 +12803,9 @@
       <c r="F453" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G453" s="1"/>
-      <c r="H453" s="3"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G453" s="8"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>813</v>
       </c>
@@ -13262,10 +12824,9 @@
       <c r="F454" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G454" s="1"/>
-      <c r="H454" s="3"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G454" s="8"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>813</v>
       </c>
@@ -13284,10 +12845,9 @@
       <c r="F455" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G455" s="1"/>
-      <c r="H455" s="3"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G455" s="8"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>813</v>
       </c>
@@ -13306,10 +12866,9 @@
       <c r="F456" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="G456" s="1"/>
-      <c r="H456" s="3"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G456" s="8"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>813</v>
       </c>
@@ -13328,10 +12887,9 @@
       <c r="F457" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G457" s="1"/>
-      <c r="H457" s="3"/>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G457" s="8"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>813</v>
       </c>
@@ -13350,10 +12908,9 @@
       <c r="F458" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G458" s="1"/>
-      <c r="H458" s="3"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G458" s="8"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>813</v>
       </c>
@@ -13372,10 +12929,9 @@
       <c r="F459" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="G459" s="1"/>
-      <c r="H459" s="3"/>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G459" s="8"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>813</v>
       </c>
@@ -13394,10 +12950,9 @@
       <c r="F460" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G460" s="1"/>
-      <c r="H460" s="3"/>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G460" s="8"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>813</v>
       </c>
@@ -13416,10 +12971,9 @@
       <c r="F461" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G461" s="1"/>
-      <c r="H461" s="3"/>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G461" s="8"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>813</v>
       </c>
@@ -13438,10 +12992,9 @@
       <c r="F462" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G462" s="1"/>
-      <c r="H462" s="3"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G462" s="8"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>813</v>
       </c>
@@ -13460,10 +13013,9 @@
       <c r="F463" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G463" s="1"/>
-      <c r="H463" s="3"/>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G463" s="8"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>813</v>
       </c>
@@ -13482,10 +13034,9 @@
       <c r="F464" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G464" s="1"/>
-      <c r="H464" s="3"/>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G464" s="8"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>813</v>
       </c>
@@ -13504,10 +13055,9 @@
       <c r="F465" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G465" s="1"/>
-      <c r="H465" s="3"/>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G465" s="8"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>813</v>
       </c>
@@ -13526,10 +13076,9 @@
       <c r="F466" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="G466" s="1"/>
-      <c r="H466" s="3"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G466" s="8"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>813</v>
       </c>
@@ -13548,10 +13097,9 @@
       <c r="F467" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="G467" s="1"/>
-      <c r="H467" s="3"/>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G467" s="8"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>813</v>
       </c>
@@ -13570,10 +13118,9 @@
       <c r="F468" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="G468" s="1"/>
-      <c r="H468" s="3"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G468" s="8"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>813</v>
       </c>
@@ -13592,10 +13139,9 @@
       <c r="F469" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="G469" s="1"/>
-      <c r="H469" s="3"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G469" s="8"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>813</v>
       </c>
@@ -13614,10 +13160,9 @@
       <c r="F470" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="G470" s="1"/>
-      <c r="H470" s="3"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G470" s="8"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>813</v>
       </c>
@@ -13636,10 +13181,9 @@
       <c r="F471" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G471" s="1"/>
-      <c r="H471" s="3"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G471" s="8"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>813</v>
       </c>
@@ -13658,10 +13202,9 @@
       <c r="F472" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G472" s="1"/>
-      <c r="H472" s="3"/>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G472" s="8"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>813</v>
       </c>
@@ -13680,10 +13223,9 @@
       <c r="F473" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G473" s="1"/>
-      <c r="H473" s="3"/>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G473" s="8"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>813</v>
       </c>
@@ -13702,10 +13244,9 @@
       <c r="F474" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G474" s="1"/>
-      <c r="H474" s="3"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G474" s="8"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>813</v>
       </c>
@@ -13724,10 +13265,9 @@
       <c r="F475" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G475" s="1"/>
-      <c r="H475" s="3"/>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G475" s="8"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>813</v>
       </c>
@@ -13746,10 +13286,9 @@
       <c r="F476" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G476" s="1"/>
-      <c r="H476" s="3"/>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G476" s="8"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>813</v>
       </c>
@@ -13768,10 +13307,9 @@
       <c r="F477" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G477" s="1"/>
-      <c r="H477" s="3"/>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G477" s="8"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>813</v>
       </c>
@@ -13790,10 +13328,9 @@
       <c r="F478" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G478" s="1"/>
-      <c r="H478" s="3"/>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G478" s="8"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>813</v>
       </c>
@@ -13812,10 +13349,9 @@
       <c r="F479" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G479" s="1"/>
-      <c r="H479" s="3"/>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G479" s="8"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>813</v>
       </c>
@@ -13834,10 +13370,9 @@
       <c r="F480" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G480" s="1"/>
-      <c r="H480" s="3"/>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G480" s="8"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>813</v>
       </c>
@@ -13856,10 +13391,9 @@
       <c r="F481" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G481" s="1"/>
-      <c r="H481" s="3"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G481" s="8"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>813</v>
       </c>
@@ -13878,10 +13412,9 @@
       <c r="F482" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G482" s="1"/>
-      <c r="H482" s="3"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G482" s="8"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>813</v>
       </c>
@@ -13900,10 +13433,9 @@
       <c r="F483" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G483" s="1"/>
-      <c r="H483" s="3"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G483" s="8"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>813</v>
       </c>
@@ -13922,10 +13454,9 @@
       <c r="F484" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G484" s="1"/>
-      <c r="H484" s="3"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G484" s="8"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>813</v>
       </c>
@@ -13944,10 +13475,9 @@
       <c r="F485" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G485" s="1"/>
-      <c r="H485" s="3"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G485" s="8"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>813</v>
       </c>
@@ -13966,10 +13496,9 @@
       <c r="F486" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G486" s="1"/>
-      <c r="H486" s="3"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G486" s="8"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>813</v>
       </c>
@@ -13988,10 +13517,9 @@
       <c r="F487" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G487" s="1"/>
-      <c r="H487" s="3"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G487" s="8"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>813</v>
       </c>
@@ -14010,10 +13538,9 @@
       <c r="F488" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G488" s="1"/>
-      <c r="H488" s="3"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G488" s="8"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>813</v>
       </c>
@@ -14032,10 +13559,9 @@
       <c r="F489" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G489" s="1"/>
-      <c r="H489" s="3"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G489" s="8"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>813</v>
       </c>
@@ -14054,10 +13580,9 @@
       <c r="F490" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G490" s="1"/>
-      <c r="H490" s="3"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G490" s="8"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>813</v>
       </c>
@@ -14076,10 +13601,9 @@
       <c r="F491" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G491" s="1"/>
-      <c r="H491" s="3"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G491" s="8"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>813</v>
       </c>
@@ -14098,10 +13622,9 @@
       <c r="F492" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="G492" s="1"/>
-      <c r="H492" s="3"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G492" s="8"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>813</v>
       </c>
@@ -14120,10 +13643,9 @@
       <c r="F493" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G493" s="1"/>
-      <c r="H493" s="3"/>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G493" s="8"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>826</v>
       </c>
@@ -14142,10 +13664,9 @@
       <c r="F494" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G494" s="1"/>
-      <c r="H494" s="3"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G494" s="8"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>826</v>
       </c>
@@ -14164,10 +13685,9 @@
       <c r="F495" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="G495" s="1"/>
-      <c r="H495" s="3"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G495" s="8"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>826</v>
       </c>
@@ -14186,10 +13706,9 @@
       <c r="F496" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G496" s="1"/>
-      <c r="H496" s="3"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G496" s="8"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>826</v>
       </c>
@@ -14208,10 +13727,9 @@
       <c r="F497" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="G497" s="1"/>
-      <c r="H497" s="3"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G497" s="8"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>826</v>
       </c>
@@ -14230,10 +13748,9 @@
       <c r="F498" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="G498" s="1"/>
-      <c r="H498" s="3"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G498" s="8"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>826</v>
       </c>
@@ -14252,10 +13769,9 @@
       <c r="F499" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G499" s="1"/>
-      <c r="H499" s="3"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G499" s="8"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>826</v>
       </c>
@@ -14274,10 +13790,9 @@
       <c r="F500" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="G500" s="1"/>
-      <c r="H500" s="3"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G500" s="8"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>826</v>
       </c>
@@ -14296,10 +13811,9 @@
       <c r="F501" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="G501" s="1"/>
-      <c r="H501" s="3"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G501" s="8"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>826</v>
       </c>
@@ -14318,10 +13832,9 @@
       <c r="F502" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="G502" s="1"/>
-      <c r="H502" s="3"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G502" s="8"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>826</v>
       </c>
@@ -14340,10 +13853,9 @@
       <c r="F503" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G503" s="1"/>
-      <c r="H503" s="3"/>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G503" s="8"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>826</v>
       </c>
@@ -14362,10 +13874,9 @@
       <c r="F504" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G504" s="1"/>
-      <c r="H504" s="3"/>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G504" s="8"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>826</v>
       </c>
@@ -14384,10 +13895,9 @@
       <c r="F505" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G505" s="1"/>
-      <c r="H505" s="3"/>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G505" s="8"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>826</v>
       </c>
@@ -14406,10 +13916,9 @@
       <c r="F506" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G506" s="1"/>
-      <c r="H506" s="3"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G506" s="8"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>826</v>
       </c>
@@ -14428,10 +13937,9 @@
       <c r="F507" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G507" s="1"/>
-      <c r="H507" s="3"/>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G507" s="8"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>826</v>
       </c>
@@ -14450,10 +13958,9 @@
       <c r="F508" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G508" s="1"/>
-      <c r="H508" s="3"/>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G508" s="8"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>826</v>
       </c>
@@ -14472,10 +13979,9 @@
       <c r="F509" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G509" s="1"/>
-      <c r="H509" s="3"/>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G509" s="8"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>826</v>
       </c>
@@ -14494,10 +14000,9 @@
       <c r="F510" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G510" s="1"/>
-      <c r="H510" s="3"/>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G510" s="8"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>826</v>
       </c>
@@ -14516,10 +14021,9 @@
       <c r="F511" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G511" s="1"/>
-      <c r="H511" s="3"/>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G511" s="8"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>826</v>
       </c>
@@ -14538,10 +14042,9 @@
       <c r="F512" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G512" s="1"/>
-      <c r="H512" s="3"/>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G512" s="8"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>826</v>
       </c>
@@ -14560,10 +14063,9 @@
       <c r="F513" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G513" s="1"/>
-      <c r="H513" s="3"/>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G513" s="8"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>826</v>
       </c>
@@ -14582,10 +14084,9 @@
       <c r="F514" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="G514" s="1"/>
-      <c r="H514" s="3"/>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G514" s="8"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>826</v>
       </c>
@@ -14604,10 +14105,9 @@
       <c r="F515" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G515" s="1"/>
-      <c r="H515" s="3"/>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G515" s="8"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>826</v>
       </c>
@@ -14626,10 +14126,9 @@
       <c r="F516" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="G516" s="1"/>
-      <c r="H516" s="3"/>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G516" s="8"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>826</v>
       </c>
@@ -14648,10 +14147,9 @@
       <c r="F517" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="G517" s="1"/>
-      <c r="H517" s="3"/>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G517" s="8"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>826</v>
       </c>
@@ -14670,10 +14168,9 @@
       <c r="F518" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G518" s="1"/>
-      <c r="H518" s="3"/>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G518" s="8"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>826</v>
       </c>
@@ -14692,10 +14189,9 @@
       <c r="F519" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G519" s="1"/>
-      <c r="H519" s="3"/>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G519" s="8"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>826</v>
       </c>
@@ -14714,10 +14210,9 @@
       <c r="F520" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G520" s="1"/>
-      <c r="H520" s="3"/>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G520" s="8"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>826</v>
       </c>
@@ -14736,10 +14231,9 @@
       <c r="F521" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G521" s="1"/>
-      <c r="H521" s="3"/>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G521" s="8"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>826</v>
       </c>
@@ -14758,10 +14252,9 @@
       <c r="F522" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G522" s="1"/>
-      <c r="H522" s="3"/>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G522" s="8"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>826</v>
       </c>
@@ -14780,10 +14273,9 @@
       <c r="F523" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="G523" s="1"/>
-      <c r="H523" s="3"/>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G523" s="8"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>826</v>
       </c>
@@ -14802,10 +14294,9 @@
       <c r="F524" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G524" s="1"/>
-      <c r="H524" s="3"/>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G524" s="8"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>826</v>
       </c>
@@ -14824,10 +14315,9 @@
       <c r="F525" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G525" s="1"/>
-      <c r="H525" s="3"/>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G525" s="8"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>826</v>
       </c>
@@ -14846,10 +14336,9 @@
       <c r="F526" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G526" s="1"/>
-      <c r="H526" s="3"/>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G526" s="8"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>826</v>
       </c>
@@ -14868,10 +14357,9 @@
       <c r="F527" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="G527" s="1"/>
-      <c r="H527" s="3"/>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G527" s="8"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>826</v>
       </c>
@@ -14890,10 +14378,9 @@
       <c r="F528" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G528" s="1"/>
-      <c r="H528" s="3"/>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G528" s="8"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>826</v>
       </c>
@@ -14912,10 +14399,9 @@
       <c r="F529" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G529" s="1"/>
-      <c r="H529" s="3"/>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G529" s="8"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>826</v>
       </c>
@@ -14934,10 +14420,9 @@
       <c r="F530" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G530" s="1"/>
-      <c r="H530" s="3"/>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G530" s="8"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>826</v>
       </c>
@@ -14956,10 +14441,9 @@
       <c r="F531" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="G531" s="1"/>
-      <c r="H531" s="3"/>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>826</v>
       </c>
@@ -14978,10 +14462,9 @@
       <c r="F532" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="G532" s="1"/>
-      <c r="H532" s="3"/>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>826</v>
       </c>
@@ -15000,10 +14483,9 @@
       <c r="F533" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="G533" s="1"/>
-      <c r="H533" s="3"/>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G533" s="8"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>826</v>
       </c>
@@ -15022,10 +14504,9 @@
       <c r="F534" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="G534" s="1"/>
-      <c r="H534" s="3"/>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G534" s="8"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>826</v>
       </c>
@@ -15044,10 +14525,9 @@
       <c r="F535" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="G535" s="1"/>
-      <c r="H535" s="3"/>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G535" s="8"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>826</v>
       </c>
@@ -15066,10 +14546,9 @@
       <c r="F536" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G536" s="1"/>
-      <c r="H536" s="3"/>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G536" s="8"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>826</v>
       </c>
@@ -15088,10 +14567,9 @@
       <c r="F537" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G537" s="1"/>
-      <c r="H537" s="3"/>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G537" s="8"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>826</v>
       </c>
@@ -15110,10 +14588,9 @@
       <c r="F538" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G538" s="1"/>
-      <c r="H538" s="3"/>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G538" s="8"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>826</v>
       </c>
@@ -15132,10 +14609,9 @@
       <c r="F539" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="G539" s="1"/>
-      <c r="H539" s="3"/>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G539" s="8"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>826</v>
       </c>
@@ -15154,10 +14630,9 @@
       <c r="F540" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="G540" s="1"/>
-      <c r="H540" s="3"/>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G540" s="8"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>826</v>
       </c>
@@ -15176,10 +14651,9 @@
       <c r="F541" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G541" s="1"/>
-      <c r="H541" s="3"/>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G541" s="8"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>826</v>
       </c>
@@ -15198,10 +14672,9 @@
       <c r="F542" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G542" s="1"/>
-      <c r="H542" s="3"/>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G542" s="8"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>826</v>
       </c>
@@ -15220,10 +14693,9 @@
       <c r="F543" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G543" s="1"/>
-      <c r="H543" s="3"/>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G543" s="8"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>826</v>
       </c>
@@ -15242,10 +14714,9 @@
       <c r="F544" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G544" s="1"/>
-      <c r="H544" s="3"/>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G544" s="8"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>826</v>
       </c>
@@ -15264,10 +14735,9 @@
       <c r="F545" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G545" s="1"/>
-      <c r="H545" s="3"/>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G545" s="8"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>835</v>
       </c>
@@ -15286,10 +14756,9 @@
       <c r="F546" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G546" s="1"/>
-      <c r="H546" s="3"/>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G546" s="8"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>835</v>
       </c>
@@ -15308,10 +14777,9 @@
       <c r="F547" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G547" s="1"/>
-      <c r="H547" s="3"/>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G547" s="8"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>835</v>
       </c>
@@ -15330,10 +14798,9 @@
       <c r="F548" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G548" s="1"/>
-      <c r="H548" s="3"/>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G548" s="8"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>835</v>
       </c>
@@ -15352,10 +14819,9 @@
       <c r="F549" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G549" s="1"/>
-      <c r="H549" s="3"/>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G549" s="8"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>835</v>
       </c>
@@ -15374,10 +14840,9 @@
       <c r="F550" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G550" s="1"/>
-      <c r="H550" s="3"/>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G550" s="8"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>835</v>
       </c>
@@ -15396,10 +14861,9 @@
       <c r="F551" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G551" s="1"/>
-      <c r="H551" s="3"/>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G551" s="8"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>835</v>
       </c>
@@ -15418,10 +14882,9 @@
       <c r="F552" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G552" s="1"/>
-      <c r="H552" s="3"/>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G552" s="8"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>835</v>
       </c>
@@ -15440,10 +14903,9 @@
       <c r="F553" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G553" s="1"/>
-      <c r="H553" s="3"/>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G553" s="8"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>835</v>
       </c>
@@ -15462,10 +14924,9 @@
       <c r="F554" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G554" s="1"/>
-      <c r="H554" s="3"/>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G554" s="8"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>835</v>
       </c>
@@ -15484,10 +14945,9 @@
       <c r="F555" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G555" s="1"/>
-      <c r="H555" s="3"/>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G555" s="8"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>835</v>
       </c>
@@ -15506,10 +14966,9 @@
       <c r="F556" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G556" s="1"/>
-      <c r="H556" s="3"/>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G556" s="8"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>835</v>
       </c>
@@ -15528,10 +14987,9 @@
       <c r="F557" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G557" s="1"/>
-      <c r="H557" s="3"/>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G557" s="8"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>835</v>
       </c>
@@ -15550,10 +15008,9 @@
       <c r="F558" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G558" s="1"/>
-      <c r="H558" s="3"/>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G558" s="8"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>835</v>
       </c>
@@ -15572,10 +15029,9 @@
       <c r="F559" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G559" s="1"/>
-      <c r="H559" s="3"/>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G559" s="8"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>835</v>
       </c>
@@ -15594,10 +15050,9 @@
       <c r="F560" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G560" s="1"/>
-      <c r="H560" s="3"/>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G560" s="8"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>835</v>
       </c>
@@ -15616,10 +15071,9 @@
       <c r="F561" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G561" s="1"/>
-      <c r="H561" s="3"/>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G561" s="8"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>835</v>
       </c>
@@ -15638,10 +15092,9 @@
       <c r="F562" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G562" s="1"/>
-      <c r="H562" s="3"/>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G562" s="8"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>835</v>
       </c>
@@ -15660,10 +15113,9 @@
       <c r="F563" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G563" s="1"/>
-      <c r="H563" s="3"/>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G563" s="8"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>835</v>
       </c>
@@ -15682,10 +15134,9 @@
       <c r="F564" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G564" s="1"/>
-      <c r="H564" s="3"/>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G564" s="8"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>835</v>
       </c>
@@ -15704,10 +15155,9 @@
       <c r="F565" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G565" s="1"/>
-      <c r="H565" s="3"/>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G565" s="8"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>835</v>
       </c>
@@ -15726,10 +15176,9 @@
       <c r="F566" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G566" s="1"/>
-      <c r="H566" s="3"/>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G566" s="8"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>835</v>
       </c>
@@ -15748,10 +15197,9 @@
       <c r="F567" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G567" s="1"/>
-      <c r="H567" s="3"/>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G567" s="8"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>835</v>
       </c>
@@ -15770,10 +15218,9 @@
       <c r="F568" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G568" s="1"/>
-      <c r="H568" s="3"/>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G568" s="8"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>835</v>
       </c>
@@ -15792,10 +15239,9 @@
       <c r="F569" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G569" s="1"/>
-      <c r="H569" s="3"/>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G569" s="8"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>835</v>
       </c>
@@ -15814,10 +15260,9 @@
       <c r="F570" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G570" s="1"/>
-      <c r="H570" s="3"/>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G570" s="8"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>835</v>
       </c>
@@ -15836,10 +15281,9 @@
       <c r="F571" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G571" s="1"/>
-      <c r="H571" s="3"/>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G571" s="8"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>835</v>
       </c>
@@ -15858,10 +15302,9 @@
       <c r="F572" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G572" s="1"/>
-      <c r="H572" s="3"/>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G572" s="8"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>835</v>
       </c>
@@ -15880,10 +15323,9 @@
       <c r="F573" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G573" s="1"/>
-      <c r="H573" s="3"/>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G573" s="8"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>835</v>
       </c>
@@ -15902,10 +15344,9 @@
       <c r="F574" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G574" s="1"/>
-      <c r="H574" s="3"/>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G574" s="8"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>835</v>
       </c>
@@ -15924,10 +15365,9 @@
       <c r="F575" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G575" s="1"/>
-      <c r="H575" s="3"/>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G575" s="8"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>835</v>
       </c>
@@ -15946,10 +15386,9 @@
       <c r="F576" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G576" s="1"/>
-      <c r="H576" s="3"/>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G576" s="8"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>835</v>
       </c>
@@ -15968,10 +15407,9 @@
       <c r="F577" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G577" s="1"/>
-      <c r="H577" s="3"/>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G577" s="8"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>835</v>
       </c>
@@ -15990,10 +15428,9 @@
       <c r="F578" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G578" s="1"/>
-      <c r="H578" s="3"/>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G578" s="8"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>835</v>
       </c>
@@ -16012,10 +15449,9 @@
       <c r="F579" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G579" s="1"/>
-      <c r="H579" s="3"/>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G579" s="8"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>835</v>
       </c>
@@ -16034,10 +15470,9 @@
       <c r="F580" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G580" s="1"/>
-      <c r="H580" s="3"/>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G580" s="8"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>835</v>
       </c>
@@ -16056,10 +15491,9 @@
       <c r="F581" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G581" s="1"/>
-      <c r="H581" s="3"/>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G581" s="8"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>835</v>
       </c>
@@ -16078,10 +15512,9 @@
       <c r="F582" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G582" s="1"/>
-      <c r="H582" s="3"/>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G582" s="8"/>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>835</v>
       </c>
@@ -16100,10 +15533,9 @@
       <c r="F583" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G583" s="1"/>
-      <c r="H583" s="3"/>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G583" s="8"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>835</v>
       </c>
@@ -16122,10 +15554,9 @@
       <c r="F584" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G584" s="1"/>
-      <c r="H584" s="3"/>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G584" s="8"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>835</v>
       </c>
@@ -16144,10 +15575,9 @@
       <c r="F585" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G585" s="1"/>
-      <c r="H585" s="3"/>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G585" s="8"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>835</v>
       </c>
@@ -16166,10 +15596,9 @@
       <c r="F586" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G586" s="1"/>
-      <c r="H586" s="3"/>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G586" s="8"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>835</v>
       </c>
@@ -16188,10 +15617,9 @@
       <c r="F587" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G587" s="1"/>
-      <c r="H587" s="3"/>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G587" s="8"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>835</v>
       </c>
@@ -16210,10 +15638,9 @@
       <c r="F588" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G588" s="1"/>
-      <c r="H588" s="3"/>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G588" s="8"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>835</v>
       </c>
@@ -16232,10 +15659,9 @@
       <c r="F589" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G589" s="1"/>
-      <c r="H589" s="3"/>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G589" s="8"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>835</v>
       </c>
@@ -16254,10 +15680,9 @@
       <c r="F590" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G590" s="1"/>
-      <c r="H590" s="3"/>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G590" s="8"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>835</v>
       </c>
@@ -16276,10 +15701,9 @@
       <c r="F591" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="G591" s="1"/>
-      <c r="H591" s="3"/>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G591" s="8"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>835</v>
       </c>
@@ -16298,10 +15722,9 @@
       <c r="F592" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G592" s="1"/>
-      <c r="H592" s="3"/>
-    </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G592" s="8"/>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>835</v>
       </c>
@@ -16320,10 +15743,9 @@
       <c r="F593" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G593" s="1"/>
-      <c r="H593" s="3"/>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G593" s="8"/>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>835</v>
       </c>
@@ -16342,10 +15764,9 @@
       <c r="F594" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G594" s="1"/>
-      <c r="H594" s="3"/>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G594" s="8"/>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>835</v>
       </c>
@@ -16364,10 +15785,9 @@
       <c r="F595" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G595" s="1"/>
-      <c r="H595" s="3"/>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G595" s="8"/>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>835</v>
       </c>
@@ -16386,10 +15806,9 @@
       <c r="F596" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G596" s="1"/>
-      <c r="H596" s="3"/>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G596" s="8"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>835</v>
       </c>
@@ -16408,10 +15827,9 @@
       <c r="F597" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G597" s="1"/>
-      <c r="H597" s="3"/>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G597" s="8"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>835</v>
       </c>
@@ -16430,10 +15848,9 @@
       <c r="F598" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G598" s="1"/>
-      <c r="H598" s="3"/>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G598" s="8"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>835</v>
       </c>
@@ -16452,10 +15869,9 @@
       <c r="F599" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G599" s="1"/>
-      <c r="H599" s="3"/>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G599" s="8"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>835</v>
       </c>
@@ -16474,10 +15890,9 @@
       <c r="F600" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G600" s="1"/>
-      <c r="H600" s="3"/>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G600" s="8"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>835</v>
       </c>
@@ -16496,10 +15911,9 @@
       <c r="F601" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G601" s="1"/>
-      <c r="H601" s="3"/>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G601" s="8"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>835</v>
       </c>
@@ -16518,10 +15932,9 @@
       <c r="F602" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G602" s="1"/>
-      <c r="H602" s="3"/>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G602" s="8"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>835</v>
       </c>
@@ -16540,10 +15953,9 @@
       <c r="F603" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G603" s="1"/>
-      <c r="H603" s="3"/>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G603" s="8"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>835</v>
       </c>
@@ -16562,10 +15974,9 @@
       <c r="F604" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G604" s="1"/>
-      <c r="H604" s="3"/>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G604" s="8"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>835</v>
       </c>
@@ -16584,10 +15995,9 @@
       <c r="F605" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G605" s="1"/>
-      <c r="H605" s="3"/>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G605" s="8"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>835</v>
       </c>
@@ -16606,10 +16016,9 @@
       <c r="F606" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G606" s="1"/>
-      <c r="H606" s="3"/>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G606" s="8"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>835</v>
       </c>
@@ -16628,10 +16037,9 @@
       <c r="F607" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G607" s="1"/>
-      <c r="H607" s="3"/>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G607" s="8"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>835</v>
       </c>
@@ -16650,10 +16058,9 @@
       <c r="F608" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G608" s="1"/>
-      <c r="H608" s="3"/>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G608" s="8"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>835</v>
       </c>
@@ -16672,10 +16079,9 @@
       <c r="F609" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G609" s="1"/>
-      <c r="H609" s="3"/>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G609" s="8"/>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>835</v>
       </c>
@@ -16694,10 +16100,9 @@
       <c r="F610" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G610" s="1"/>
-      <c r="H610" s="3"/>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G610" s="8"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>818</v>
       </c>
@@ -16716,10 +16121,9 @@
       <c r="F611" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G611" s="1"/>
-      <c r="H611" s="3"/>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G611" s="8"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>818</v>
       </c>
@@ -16738,10 +16142,9 @@
       <c r="F612" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="G612" s="1"/>
-      <c r="H612" s="3"/>
-    </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G612" s="8"/>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>818</v>
       </c>
@@ -16760,10 +16163,9 @@
       <c r="F613" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="G613" s="1"/>
-      <c r="H613" s="3"/>
-    </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G613" s="8"/>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>818</v>
       </c>
@@ -16782,10 +16184,9 @@
       <c r="F614" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G614" s="1"/>
-      <c r="H614" s="3"/>
-    </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G614" s="8"/>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>818</v>
       </c>
@@ -16804,10 +16205,9 @@
       <c r="F615" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G615" s="1"/>
-      <c r="H615" s="3"/>
-    </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G615" s="8"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>818</v>
       </c>
@@ -16826,10 +16226,9 @@
       <c r="F616" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G616" s="1"/>
-      <c r="H616" s="3"/>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G616" s="8"/>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>818</v>
       </c>
@@ -16848,10 +16247,9 @@
       <c r="F617" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G617" s="1"/>
-      <c r="H617" s="3"/>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G617" s="8"/>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>818</v>
       </c>
@@ -16870,10 +16268,9 @@
       <c r="F618" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G618" s="1"/>
-      <c r="H618" s="3"/>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G618" s="8"/>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>818</v>
       </c>
@@ -16892,10 +16289,9 @@
       <c r="F619" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G619" s="1"/>
-      <c r="H619" s="3"/>
-    </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G619" s="8"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>818</v>
       </c>
@@ -16914,10 +16310,9 @@
       <c r="F620" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G620" s="1"/>
-      <c r="H620" s="3"/>
-    </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G620" s="8"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>818</v>
       </c>
@@ -16936,10 +16331,9 @@
       <c r="F621" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G621" s="1"/>
-      <c r="H621" s="3"/>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G621" s="8"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>818</v>
       </c>
@@ -16958,10 +16352,9 @@
       <c r="F622" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G622" s="1"/>
-      <c r="H622" s="3"/>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G622" s="8"/>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>818</v>
       </c>
@@ -16980,10 +16373,9 @@
       <c r="F623" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="G623" s="1"/>
-      <c r="H623" s="3"/>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G623" s="8"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>818</v>
       </c>
@@ -17002,10 +16394,9 @@
       <c r="F624" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G624" s="1"/>
-      <c r="H624" s="3"/>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G624" s="8"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>818</v>
       </c>
@@ -17024,10 +16415,9 @@
       <c r="F625" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G625" s="1"/>
-      <c r="H625" s="3"/>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G625" s="8"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
         <v>818</v>
       </c>
@@ -17046,10 +16436,9 @@
       <c r="F626" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="G626" s="1"/>
-      <c r="H626" s="3"/>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G626" s="8"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
         <v>818</v>
       </c>
@@ -17068,10 +16457,9 @@
       <c r="F627" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G627" s="1"/>
-      <c r="H627" s="3"/>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G627" s="8"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
         <v>818</v>
       </c>
@@ -17090,10 +16478,9 @@
       <c r="F628" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="G628" s="1"/>
-      <c r="H628" s="3"/>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G628" s="8"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
         <v>818</v>
       </c>
@@ -17112,10 +16499,9 @@
       <c r="F629" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="G629" s="1"/>
-      <c r="H629" s="3"/>
-    </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G629" s="8"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
         <v>818</v>
       </c>
@@ -17134,10 +16520,9 @@
       <c r="F630" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G630" s="1"/>
-      <c r="H630" s="3"/>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G630" s="8"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
         <v>818</v>
       </c>
@@ -17156,10 +16541,9 @@
       <c r="F631" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G631" s="1"/>
-      <c r="H631" s="3"/>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G631" s="8"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
         <v>818</v>
       </c>
@@ -17178,32 +16562,38 @@
       <c r="F632" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G632" s="1"/>
-      <c r="H632" s="3"/>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A633" s="4" t="s">
+      <c r="G632" s="8"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A633" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="B633" s="5" t="s">
+      <c r="B633" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C633" s="5" t="s">
+      <c r="C633" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D633" s="5" t="s">
+      <c r="D633" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E633" s="5" t="s">
+      <c r="E633" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F633" s="5" t="s">
+      <c r="F633" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G633" s="5"/>
-      <c r="H633" s="6"/>
+      <c r="G633" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G633">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$G$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
